--- a/playlist_per_work/vict001goli01.xlsx
+++ b/playlist_per_work/vict001goli01.xlsx
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#goliat</t>
+          <t>#'tgeru</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>goliat</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>'tgeru</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#'tgeru</t>
+          <t>#achis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>'tgeru</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>achis</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#abner</t>
+          <t>#golia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>abner</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>golia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#david</t>
+          <t>#ionath</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>david</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ionath</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -595,11 +579,7 @@
           <t>saul</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#achis</t>
+          <t>#1.-philist</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>achis</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. philist</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#ionath</t>
+          <t>#david</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ionath</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>david</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#eliab</t>
+          <t>#2.-philist</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eliab</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2. philist</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#schild</t>
+          <t>#eliab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>schild</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>eliab</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#isai</t>
+          <t>#schild</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>isai</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>schild</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -743,19 +703,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#1.-philist</t>
+          <t>#isai</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1. philist</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>isai</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,12 +725,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#1.-philist</t>
+          <t>#abner</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2. philist</t>
+          <t>abner</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -796,7 +752,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>golia</t>
+          <t>goliat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>

--- a/playlist_per_work/vict001goli01.xlsx
+++ b/playlist_per_work/vict001goli01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#'tgeru</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>'tgeru</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#achis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>achis</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#achis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>achis</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#abner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>abner</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#golia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>golia</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#isai</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>isai</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,16 +560,17 @@
           <t>#ionath</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ionath</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#saul</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>saul</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#eliab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>eliab</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#1.-philist</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1. philist</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#goliat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>goliat</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#david</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>david</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#schild</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>schild</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#2.-philist</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2. philist</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#golia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>golia</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#eliab</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>eliab</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#2.-philist</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2. philist</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#schild</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>schild</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#'tgeru</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>'tgeru</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#isai</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>isai</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#david</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>david</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#abner</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>abner</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#1.-philist</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1. philist</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#goliat</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>goliat</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#saul</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>saul</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
